--- a/DPMMVCCore/DPM_Testing/wwwroot/DPM/src/assets/RawMinedData.xlsx
+++ b/DPMMVCCore/DPM_Testing/wwwroot/DPM/src/assets/RawMinedData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amins\Desktop\Train File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amins\Desktop\SHIV SIR PROJECT\Predictive\Predictive-Maintenance\DPMMVCCore\DPM_Testing\wwwroot\DPM\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F46AC415-A3E8-4D4C-8448-E7829C2210A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C05D272-818B-4CD2-83EB-86A53E0A0E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{193C74A5-22AF-4274-9E10-45E08158AC1C}"/>
   </bookViews>
@@ -26,9 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Date</t>
-  </si>
   <si>
     <t>TD1</t>
   </si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>InsertedDate</t>
   </si>
 </sst>
 </file>
@@ -403,9 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B1DEA4-61A3-4351-9B9C-D58FC6CDC5AB}">
   <dimension ref="A1:K3070"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -414,25 +412,25 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -458,7 +456,7 @@
         <v>8.4787700000000008</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
